--- a/ConfigFiles/ConfigWB_2015.xlsx
+++ b/ConfigFiles/ConfigWB_2015.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matij\Documents\Github\test_Balkans\ConfigFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matij\Documents\Github\Balkans\DispaSET-for-the-Balkans\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7CA3708-92FD-486A-9540-BA31EA9797EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5F0F263C-1EAD-4055-B890-6E2AEF448EF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="1188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,9 +423,6 @@
     <t>No clustering</t>
   </si>
   <si>
-    <t>Simulation of the WB power system in 2015, not isolated. The hydro plants and the reservoirs are decribed with a high level of details</t>
-  </si>
-  <si>
     <t>Database/PowerPlants/##/PP_2015.csv</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>Simulations/simulationWB_2015_Standard</t>
+  </si>
+  <si>
+    <t>Simulation of the WB power system in 2015. The hydro plants and the reservoirs are decribed with a high level of details</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,7 +1092,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -1131,7 +1131,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="14"/>
       <c r="H18" s="1" t="s">
@@ -1351,7 +1351,7 @@
         <v>27</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>82</v>
@@ -1366,7 +1366,7 @@
         <v>27</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>82</v>
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>82</v>
@@ -1400,7 +1400,7 @@
         <v>27</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>82</v>
@@ -1452,7 +1452,7 @@
         <v>27</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>82</v>
@@ -1469,7 +1469,7 @@
         <v>27</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" s="22" t="s">
         <v>82</v>
@@ -1595,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="22" t="s">
         <v>82</v>
@@ -1645,7 +1645,7 @@
         <v>27</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>82</v>
@@ -1705,13 +1705,13 @@
         <v>43</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C88" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F88" s="5" t="b">
         <v>0</v>
@@ -1723,13 +1723,13 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="30"/>
       <c r="B89" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F89" s="5" t="b">
         <v>0</v>
@@ -1738,13 +1738,13 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="30"/>
       <c r="B90" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F90" s="5" t="b">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F91" s="5" t="b">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F93" s="5" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F94" s="5" t="b">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F99" s="5" t="b">
         <v>1</v>
@@ -1918,13 +1918,13 @@
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="30"/>
       <c r="B102" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C102" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F102" s="5" t="b">
         <v>1</v>
